--- a/iregular_verbs.xlsx
+++ b/iregular_verbs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
   <si>
     <t>present</t>
   </si>
@@ -194,6 +194,12 @@
   </si>
   <si>
     <t>dejame hacerlo otra vez</t>
+  </si>
+  <si>
+    <t>the water balloon burst when it hit the teacher's leg.</t>
+  </si>
+  <si>
+    <t>el balon de agua explotó cuand golpeó la pierna del profesor</t>
   </si>
 </sst>
 </file>
@@ -539,7 +545,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F15" sqref="F15"/>
+      <selection pane="bottomLeft" activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -548,7 +554,7 @@
     <col min="2" max="2" width="18" customWidth="1"/>
     <col min="3" max="3" width="16" customWidth="1"/>
     <col min="4" max="4" width="24.140625" customWidth="1"/>
-    <col min="6" max="6" width="44" customWidth="1"/>
+    <col min="6" max="6" width="48.140625" customWidth="1"/>
     <col min="7" max="7" width="43.5703125" customWidth="1"/>
     <col min="8" max="8" width="49.7109375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12.5703125" customWidth="1"/>
@@ -699,6 +705,12 @@
       <c r="B9" t="s">
         <v>31</v>
       </c>
+      <c r="F9" t="s">
+        <v>60</v>
+      </c>
+      <c r="G9" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -774,5 +786,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>